--- a/PhoenixCI/Excel_Template/40190.xlsx
+++ b/PhoenixCI/Excel_Template/40190.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6806D03-CD4C-4E80-A6AE-40F57D997893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2BAD11-634A-4735-B818-68A8857290B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="23040" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="監視報告表-新" sheetId="33" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2615,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/PhoenixCI/Excel_Template/40190.xlsx
+++ b/PhoenixCI/Excel_Template/40190.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2BAD11-634A-4735-B818-68A8857290B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6806D03-CD4C-4E80-A6AE-40F57D997893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="23040" windowHeight="7965"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="監視報告表-新" sheetId="33" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2614,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
